--- a/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/data_descriptives_all.xlsx
+++ b/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/data_descriptives_all.xlsx
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>676</v>
